--- a/Stats_Test_1.xlsx
+++ b/Stats_Test_1.xlsx
@@ -447,15 +447,15 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
         <v>1.414213562373095</v>
